--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-MTCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD684C8-2DA8-4EE9-AD10-72B3724B1846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB22DA-7D16-4A62-817B-8105497C4532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11124" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -599,42 +610,42 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C34"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -642,23 +653,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -666,52 +677,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -722,99 +733,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
       <c r="C22" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
       <c r="C29" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -822,77 +863,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36"/>
+      <c r="B36">
+        <v>3</v>
+      </c>
       <c r="C36" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
       <c r="C40" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
       <c r="C41" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -900,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
@@ -908,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
@@ -916,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
@@ -924,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
@@ -932,7 +990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
@@ -940,7 +998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -965,6 +1023,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1096,35 +1169,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1146,9 +1194,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-MTCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB22DA-7D16-4A62-817B-8105497C4532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0A4AB-23EF-4F27-B0D2-D3E4B3C4111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Describes design</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,6 +957,9 @@
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
@@ -962,6 +968,9 @@
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
@@ -970,6 +979,9 @@
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
@@ -978,6 +990,9 @@
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
@@ -986,6 +1001,9 @@
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
@@ -994,6 +1012,9 @@
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
@@ -1004,7 +1025,7 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
@@ -1023,21 +1044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1169,10 +1175,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1194,19 +1225,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-MTCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0A4AB-23EF-4F27-B0D2-D3E4B3C4111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E58A1-7270-4F8A-A1ED-28FAB9120131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
@@ -1044,6 +1044,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1175,35 +1190,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1225,9 +1215,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-MTCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E58A1-7270-4F8A-A1ED-28FAB9120131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1976601E-E622-4AD5-A3B1-552F19012FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Describes design</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,9 +742,6 @@
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
@@ -756,9 +750,6 @@
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
       <c r="C22" s="6">
         <v>3</v>
       </c>
@@ -767,9 +758,6 @@
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
@@ -778,9 +766,6 @@
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
@@ -789,9 +774,6 @@
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
@@ -800,9 +782,6 @@
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
@@ -818,9 +797,6 @@
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
       <c r="C29" s="6">
         <v>5</v>
       </c>
@@ -829,9 +805,6 @@
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -840,9 +813,6 @@
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
@@ -851,9 +821,6 @@
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
@@ -870,9 +837,6 @@
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
@@ -881,9 +845,7 @@
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
+      <c r="B36"/>
       <c r="C36" s="6">
         <v>3</v>
       </c>
@@ -899,9 +861,6 @@
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
@@ -910,9 +869,6 @@
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
       <c r="C40" s="6">
         <v>8</v>
       </c>
@@ -921,9 +877,6 @@
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
       <c r="C41" s="6">
         <v>5</v>
       </c>
@@ -932,9 +885,6 @@
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
@@ -957,9 +907,6 @@
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
@@ -968,9 +915,6 @@
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
@@ -979,9 +923,6 @@
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
@@ -990,9 +931,6 @@
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
@@ -1001,9 +939,6 @@
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
@@ -1012,9 +947,6 @@
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
@@ -1025,7 +957,7 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
@@ -1044,21 +976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1190,10 +1107,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1215,19 +1157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>